--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T08:18:01+00:00</t>
+    <t>2024-05-23T12:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="673">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -480,7 +480,10 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre d'OncoFAIR</t>
+    <t>Date and time at which the prescriber considered the prescription validated</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre d'OncoFAIR contenant la date et heure de la prescription</t>
   </si>
   <si>
     <t>dateHeurePrescription</t>
@@ -3597,10 +3600,10 @@
         <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3666,7 +3669,7 @@
         <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -3686,14 +3689,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3715,16 +3718,16 @@
         <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -3773,7 +3776,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3808,10 +3811,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3834,16 +3837,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3893,7 +3896,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3908,30 +3911,30 @@
         <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3957,10 +3960,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -4011,7 +4014,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -4020,7 +4023,7 @@
         <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -4038,7 +4041,7 @@
         <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>80</v>
@@ -4046,14 +4049,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -4075,13 +4078,13 @@
         <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4122,7 +4125,7 @@
         <v>141</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
@@ -4131,7 +4134,7 @@
         <v>142</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4158,7 +4161,7 @@
         <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -4166,10 +4169,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4195,16 +4198,16 @@
         <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -4232,10 +4235,10 @@
         <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -4253,7 +4256,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4280,7 +4283,7 @@
         <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>136</v>
@@ -4288,10 +4291,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4314,19 +4317,19 @@
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4351,13 +4354,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -4375,7 +4378,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4402,18 +4405,18 @@
         <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4439,16 +4442,16 @@
         <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4461,7 +4464,7 @@
         <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>80</v>
@@ -4497,7 +4500,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4524,18 +4527,18 @@
         <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4558,16 +4561,16 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4581,7 +4584,7 @@
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -4617,7 +4620,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4626,7 +4629,7 @@
         <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>103</v>
@@ -4644,18 +4647,18 @@
         <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4678,13 +4681,13 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4735,7 +4738,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4762,18 +4765,18 @@
         <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4796,16 +4799,16 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4855,7 +4858,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4882,18 +4885,18 @@
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4916,13 +4919,13 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4973,7 +4976,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4988,10 +4991,10 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -5000,7 +5003,7 @@
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -5008,10 +5011,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -5034,13 +5037,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5091,7 +5094,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5109,16 +5112,16 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -5126,10 +5129,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5152,17 +5155,17 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5211,7 +5214,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5229,7 +5232,7 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -5238,7 +5241,7 @@
         <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5275,13 +5278,13 @@
         <v>111</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5310,10 +5313,10 @@
         <v>115</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -5331,7 +5334,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>91</v>
@@ -5349,16 +5352,16 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -5366,10 +5369,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5392,16 +5395,16 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5427,13 +5430,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5451,7 +5454,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5469,7 +5472,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5478,7 +5481,7 @@
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -5486,10 +5489,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5512,13 +5515,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5569,7 +5572,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5596,7 +5599,7 @@
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5604,10 +5607,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5633,13 +5636,13 @@
         <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5668,10 +5671,10 @@
         <v>115</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5689,7 +5692,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>91</v>
@@ -5707,16 +5710,16 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5724,10 +5727,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5750,16 +5753,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5785,13 +5788,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5809,7 +5812,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5830,13 +5833,13 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5844,10 +5847,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5873,10 +5876,10 @@
         <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5906,10 +5909,10 @@
         <v>115</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5927,7 +5930,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5945,16 +5948,16 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -5962,10 +5965,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5988,16 +5991,16 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6047,7 +6050,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6074,7 +6077,7 @@
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -6082,10 +6085,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6108,16 +6111,16 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6143,13 +6146,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -6167,7 +6170,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>91</v>
@@ -6185,27 +6188,27 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6231,10 +6234,10 @@
         <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6285,7 +6288,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6294,7 +6297,7 @@
         <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>80</v>
@@ -6312,7 +6315,7 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
@@ -6320,14 +6323,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6349,13 +6352,13 @@
         <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6396,7 +6399,7 @@
         <v>141</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
@@ -6405,7 +6408,7 @@
         <v>142</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6432,7 +6435,7 @@
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -6440,10 +6443,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6466,13 +6469,13 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6523,7 +6526,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6558,10 +6561,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6587,10 +6590,10 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6641,7 +6644,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6650,7 +6653,7 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>80</v>
@@ -6668,7 +6671,7 @@
         <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6676,14 +6679,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6705,13 +6708,13 @@
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6752,7 +6755,7 @@
         <v>141</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
@@ -6761,7 +6764,7 @@
         <v>142</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6788,7 +6791,7 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6796,10 +6799,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6822,19 +6825,19 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6883,7 +6886,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6910,18 +6913,18 @@
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6947,10 +6950,10 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7001,7 +7004,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -7010,7 +7013,7 @@
         <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -7028,7 +7031,7 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -7036,14 +7039,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -7065,13 +7068,13 @@
         <v>138</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -7112,7 +7115,7 @@
         <v>141</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
@@ -7121,7 +7124,7 @@
         <v>142</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7148,7 +7151,7 @@
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -7156,10 +7159,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7185,16 +7188,16 @@
         <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7243,7 +7246,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7270,18 +7273,18 @@
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7304,16 +7307,16 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7363,7 +7366,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7390,18 +7393,18 @@
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7427,14 +7430,14 @@
         <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7444,7 +7447,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7483,7 +7486,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7492,7 +7495,7 @@
         <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
@@ -7510,18 +7513,18 @@
         <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7544,17 +7547,17 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7603,7 +7606,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7612,7 +7615,7 @@
         <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
@@ -7630,18 +7633,18 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7664,19 +7667,19 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7725,7 +7728,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7752,18 +7755,18 @@
         <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7786,19 +7789,19 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7847,7 +7850,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7874,18 +7877,18 @@
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7908,13 +7911,13 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7965,7 +7968,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -8000,10 +8003,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8026,16 +8029,16 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8085,7 +8088,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>91</v>
@@ -8103,27 +8106,27 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8146,13 +8149,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8203,7 +8206,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8230,7 +8233,7 @@
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8238,10 +8241,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8264,16 +8267,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8323,7 +8326,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8338,30 +8341,30 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8384,16 +8387,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8431,7 +8434,7 @@
         <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
@@ -8441,7 +8444,7 @@
         <v>142</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8459,16 +8462,16 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8476,13 +8479,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>80</v>
@@ -8504,16 +8507,16 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8563,7 +8566,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8578,19 +8581,19 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8598,10 +8601,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8627,10 +8630,10 @@
         <v>93</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8642,7 +8645,7 @@
         <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>80</v>
@@ -8681,7 +8684,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8690,7 +8693,7 @@
         <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>80</v>
@@ -8708,7 +8711,7 @@
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8716,14 +8719,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8745,13 +8748,13 @@
         <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8792,7 +8795,7 @@
         <v>141</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
@@ -8801,7 +8804,7 @@
         <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8828,7 +8831,7 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8836,10 +8839,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8862,16 +8865,16 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8921,7 +8924,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8930,7 +8933,7 @@
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>103</v>
@@ -8956,10 +8959,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8985,13 +8988,13 @@
         <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9017,13 +9020,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -9041,7 +9044,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9076,10 +9079,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9102,16 +9105,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9161,7 +9164,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9170,7 +9173,7 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
@@ -9188,7 +9191,7 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9196,10 +9199,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9222,16 +9225,16 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9281,7 +9284,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9290,7 +9293,7 @@
         <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -9316,13 +9319,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>80</v>
@@ -9344,16 +9347,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9403,7 +9406,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9418,19 +9421,19 @@
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9438,10 +9441,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9467,10 +9470,10 @@
         <v>93</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9482,7 +9485,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -9521,7 +9524,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9530,7 +9533,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
@@ -9548,7 +9551,7 @@
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9556,14 +9559,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9585,13 +9588,13 @@
         <v>138</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9632,7 +9635,7 @@
         <v>141</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
@@ -9641,7 +9644,7 @@
         <v>142</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9668,7 +9671,7 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9676,10 +9679,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9702,16 +9705,16 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9761,7 +9764,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9770,7 +9773,7 @@
         <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>103</v>
@@ -9796,10 +9799,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9825,13 +9828,13 @@
         <v>105</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9857,13 +9860,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9881,7 +9884,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9916,10 +9919,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9942,16 +9945,16 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10001,7 +10004,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10010,7 +10013,7 @@
         <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -10028,7 +10031,7 @@
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -10036,10 +10039,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10062,16 +10065,16 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10121,7 +10124,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10130,7 +10133,7 @@
         <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>103</v>
@@ -10156,10 +10159,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10182,13 +10185,13 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10239,7 +10242,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10257,27 +10260,27 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10300,13 +10303,13 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10357,7 +10360,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10375,16 +10378,16 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10392,10 +10395,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10418,16 +10421,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10477,7 +10480,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10504,7 +10507,7 @@
         <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10512,10 +10515,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10538,16 +10541,16 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10573,13 +10576,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10597,7 +10600,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10615,7 +10618,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10624,7 +10627,7 @@
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10632,10 +10635,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10658,13 +10661,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10715,7 +10718,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10733,16 +10736,16 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10750,10 +10753,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10776,13 +10779,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10833,7 +10836,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10860,7 +10863,7 @@
         <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>80</v>
@@ -10868,10 +10871,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10894,13 +10897,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10951,7 +10954,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10975,10 +10978,10 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>80</v>
@@ -10986,10 +10989,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11012,16 +11015,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11047,13 +11050,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11071,7 +11074,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11086,30 +11089,30 @@
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11132,16 +11135,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11167,13 +11170,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11191,7 +11194,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11218,7 +11221,7 @@
         <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>80</v>
@@ -11226,10 +11229,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11252,13 +11255,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11309,7 +11312,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11327,7 +11330,7 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -11336,7 +11339,7 @@
         <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>80</v>
@@ -11344,10 +11347,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11370,13 +11373,13 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11427,7 +11430,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11442,19 +11445,19 @@
         <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>80</v>
@@ -11462,10 +11465,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11488,17 +11491,17 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11547,7 +11550,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11574,7 +11577,7 @@
         <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>80</v>
@@ -11582,10 +11585,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11608,13 +11611,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11665,7 +11668,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11692,7 +11695,7 @@
         <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>80</v>
@@ -11700,10 +11703,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11726,16 +11729,16 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11785,7 +11788,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11812,7 +11815,7 @@
         <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>80</v>
@@ -11820,10 +11823,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11846,13 +11849,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11903,7 +11906,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11924,13 +11927,13 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>80</v>
@@ -11938,10 +11941,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11964,13 +11967,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12021,7 +12024,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12030,7 +12033,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>80</v>
@@ -12048,7 +12051,7 @@
         <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>80</v>
@@ -12056,14 +12059,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -12085,13 +12088,13 @@
         <v>138</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12141,7 +12144,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12168,7 +12171,7 @@
         <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>80</v>
@@ -12176,14 +12179,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12205,16 +12208,16 @@
         <v>138</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12263,7 +12266,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12298,10 +12301,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12324,16 +12327,16 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12383,7 +12386,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12410,7 +12413,7 @@
         <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12418,10 +12421,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12444,13 +12447,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12501,7 +12504,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12510,7 +12513,7 @@
         <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>80</v>
@@ -12528,7 +12531,7 @@
         <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>80</v>
@@ -12536,14 +12539,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12565,13 +12568,13 @@
         <v>138</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12621,7 +12624,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12648,7 +12651,7 @@
         <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>80</v>
@@ -12656,14 +12659,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12685,16 +12688,16 @@
         <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12743,7 +12746,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12778,10 +12781,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12804,13 +12807,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12861,7 +12864,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12888,7 +12891,7 @@
         <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>80</v>
@@ -12896,10 +12899,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12922,13 +12925,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12979,7 +12982,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13006,7 +13009,7 @@
         <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>80</v>
@@ -13014,10 +13017,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13040,13 +13043,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13097,7 +13100,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13124,7 +13127,7 @@
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>80</v>
@@ -13132,10 +13135,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13158,19 +13161,19 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13219,7 +13222,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13240,13 +13243,13 @@
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>80</v>
@@ -13254,10 +13257,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13280,16 +13283,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13339,7 +13342,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13360,24 +13363,24 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13400,13 +13403,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13457,7 +13460,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13478,24 +13481,24 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13518,16 +13521,16 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13577,7 +13580,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13598,13 +13601,13 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>80</v>
@@ -13612,10 +13615,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13638,13 +13641,13 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13695,7 +13698,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13719,10 +13722,10 @@
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>80</v>
@@ -13730,10 +13733,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13756,13 +13759,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13813,7 +13816,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13840,7 +13843,7 @@
         <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>80</v>
@@ -13848,10 +13851,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13874,13 +13877,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13907,11 +13910,11 @@
         <v>80</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>80</v>
@@ -13929,7 +13932,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13956,7 +13959,7 @@
         <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>80</v>
@@ -13964,10 +13967,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13990,13 +13993,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14047,7 +14050,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14068,13 +14071,13 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>80</v>
@@ -14082,10 +14085,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14108,13 +14111,13 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14165,7 +14168,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14174,7 +14177,7 @@
         <v>91</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>80</v>
@@ -14192,7 +14195,7 @@
         <v>80</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>80</v>
@@ -14200,14 +14203,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14229,13 +14232,13 @@
         <v>138</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14285,7 +14288,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14312,7 +14315,7 @@
         <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>80</v>
@@ -14320,14 +14323,14 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14349,16 +14352,16 @@
         <v>138</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14407,7 +14410,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14442,10 +14445,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14468,16 +14471,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14503,13 +14506,13 @@
         <v>80</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -14527,7 +14530,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>91</v>
@@ -14548,24 +14551,24 @@
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14588,13 +14591,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14621,13 +14624,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -14645,7 +14648,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14666,24 +14669,24 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14706,16 +14709,16 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14765,7 +14768,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14783,7 +14786,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -14792,7 +14795,7 @@
         <v>80</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>80</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Groups together all the prescription elements validated simultaneously by the same prescriber</t>
+    <t>Groups together all the prescription elements validated simultaneously by the same prescriber. 
+Regroupe l’ensemble des éléments de prescription validés simultanément par un même prescripteur.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -276,7 +277,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>PRESCRIPTION</t>
+    <t>Prescription</t>
   </si>
   <si>
     <t>Request</t>
@@ -760,7 +761,7 @@
     <t>A plan or request that is fulfilled in whole or in part by this medication request.</t>
   </si>
   <si>
-    <t>PROTOCOLE PRESCRIT</t>
+    <t>ProtocolePrescrit</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -1309,7 +1310,7 @@
     <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter."    If there is a need to link to episodes of care they will be handled with an extension.</t>
   </si>
   <si>
-    <t>SEJOUR</t>
+    <t>Sejour</t>
   </si>
   <si>
     <t>Request.encounter</t>
@@ -1660,7 +1661,7 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t>RENSEIGNEMENT COMPLEMENTAIRE</t>
+    <t>RenseignementComplementaire</t>
   </si>
   <si>
     <t>Request.reason</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1002,10 +1002,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/concept-medication-oncofair-valueset</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1072,6 +1069,11 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;code value="prescription"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -1079,130 +1081,6 @@
   </si>
   <si>
     <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>prescription</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod-1
-</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
   </si>
   <si>
     <t>MedicationRequest.medication.concept.text</t>
@@ -2436,7 +2314,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP103"/>
+  <dimension ref="A1:AP96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6147,13 +6025,11 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Y31" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="Z31" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -6189,27 +6065,27 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AO31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6324,10 +6200,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6444,10 +6320,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6473,10 +6349,10 @@
         <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6527,7 +6403,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6562,10 +6438,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6680,10 +6556,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6800,10 +6676,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6826,19 +6702,19 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6848,7 +6724,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6945,19 +6821,23 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -7005,7 +6885,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -7014,10 +6894,10 @@
         <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -7032,29 +6912,29 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -7063,20 +6943,18 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>176</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -7113,31 +6991,31 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -7152,7 +7030,7 @@
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -7160,10 +7038,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7171,7 +7049,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>91</v>
@@ -7186,20 +7064,18 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -7247,10 +7123,10 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>91</v>
@@ -7265,27 +7141,27 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7296,7 +7172,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7305,20 +7181,18 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7367,13 +7241,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7394,18 +7268,18 @@
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7413,33 +7287,33 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7448,7 +7322,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7487,7 +7361,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7496,36 +7370,36 @@
         <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7536,30 +7410,30 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7595,28 +7469,26 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
@@ -7625,29 +7497,31 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7665,23 +7539,21 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7735,7 +7607,7 @@
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7744,30 +7616,30 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7775,7 +7647,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>91</v>
@@ -7787,23 +7659,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7812,7 +7680,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7851,7 +7719,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>384</v>
+        <v>172</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7860,10 +7728,10 @@
         <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7878,29 +7746,29 @@
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>385</v>
+        <v>174</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7909,18 +7777,20 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>176</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7957,31 +7827,31 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>391</v>
+        <v>179</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7996,7 +7866,7 @@
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -8004,10 +7874,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8015,7 +7885,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -8030,16 +7900,16 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>210</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8089,16 +7959,16 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>103</v>
@@ -8107,27 +7977,27 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>400</v>
+        <v>136</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8138,7 +8008,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8147,18 +8017,20 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8183,13 +8055,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -8207,13 +8079,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -8234,7 +8106,7 @@
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>406</v>
+        <v>136</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8242,10 +8114,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8253,31 +8125,31 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>159</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8327,7 +8199,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8336,33 +8208,33 @@
         <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>415</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>417</v>
@@ -8376,28 +8248,28 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K50" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8435,26 +8307,28 @@
         <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
@@ -8463,16 +8337,16 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>424</v>
+        <v>136</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8480,13 +8354,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>80</v>
@@ -8508,16 +8382,16 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8567,7 +8441,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8582,19 +8456,19 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8602,10 +8476,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8646,7 +8520,7 @@
         <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>80</v>
@@ -8720,10 +8594,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8840,10 +8714,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8869,13 +8743,13 @@
         <v>210</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8925,7 +8799,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8934,7 +8808,7 @@
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>103</v>
@@ -8960,10 +8834,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8989,13 +8863,13 @@
         <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9024,10 +8898,10 @@
         <v>195</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -9045,7 +8919,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9080,10 +8954,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9109,13 +8983,13 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9165,7 +9039,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9174,7 +9048,7 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
@@ -9192,7 +9066,7 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9200,10 +9074,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9229,13 +9103,13 @@
         <v>210</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9285,7 +9159,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9294,7 +9168,7 @@
         <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -9320,14 +9194,12 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9345,20 +9217,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>274</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9407,13 +9277,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -9422,30 +9292,30 @@
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9453,7 +9323,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>91</v>
@@ -9465,16 +9335,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>93</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>171</v>
+        <v>443</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9486,7 +9356,7 @@
         <v>80</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>80</v>
@@ -9525,7 +9395,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>172</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9534,25 +9404,25 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>174</v>
+        <v>359</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9560,21 +9430,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9583,19 +9453,19 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>176</v>
+        <v>447</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>177</v>
+        <v>448</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>155</v>
+        <v>449</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9633,31 +9503,31 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -9672,7 +9542,7 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>174</v>
+        <v>450</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9680,10 +9550,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9706,16 +9576,16 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9741,13 +9611,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9765,7 +9635,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9774,7 +9644,7 @@
         <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>103</v>
@@ -9783,7 +9653,7 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9792,7 +9662,7 @@
         <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>136</v>
+        <v>458</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9800,10 +9670,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9814,7 +9684,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9823,20 +9693,18 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>105</v>
+        <v>460</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9861,13 +9729,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9885,13 +9753,13 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
@@ -9903,16 +9771,16 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>136</v>
+        <v>465</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9920,10 +9788,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9934,7 +9802,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9943,20 +9811,18 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>159</v>
+        <v>467</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -10005,16 +9871,16 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -10032,7 +9898,7 @@
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -10040,10 +9906,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10063,20 +9929,18 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>210</v>
+        <v>471</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10125,7 +9989,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10134,7 +9998,7 @@
         <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>103</v>
@@ -10149,10 +10013,10 @@
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -10160,10 +10024,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10174,27 +10038,29 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>274</v>
+        <v>477</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10219,13 +10085,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -10243,13 +10109,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -10258,30 +10124,30 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10301,18 +10167,20 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>482</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10337,13 +10205,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10361,7 +10229,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10379,16 +10247,16 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>400</v>
+        <v>495</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10396,10 +10264,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10410,7 +10278,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10419,20 +10287,18 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>304</v>
+        <v>497</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10481,13 +10347,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -10499,7 +10365,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10508,7 +10374,7 @@
         <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10516,10 +10382,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10533,26 +10399,24 @@
         <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>190</v>
+        <v>503</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10577,13 +10441,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10601,13 +10465,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -10616,19 +10480,19 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10636,10 +10500,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10650,7 +10514,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10662,16 +10526,18 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10719,13 +10585,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -10737,16 +10603,16 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>505</v>
+        <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10754,10 +10620,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10768,7 +10634,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10780,13 +10646,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>508</v>
+        <v>220</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10837,13 +10703,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
@@ -10864,7 +10730,7 @@
         <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>80</v>
@@ -10872,10 +10738,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10886,7 +10752,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10898,15 +10764,17 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10955,13 +10823,13 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
@@ -10979,10 +10847,10 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>80</v>
@@ -10990,10 +10858,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11004,10 +10872,10 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
@@ -11016,17 +10884,15 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11051,13 +10917,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11075,13 +10941,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -11090,30 +10956,30 @@
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11136,17 +11002,15 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>531</v>
+        <v>170</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11171,13 +11035,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11195,7 +11059,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>530</v>
+        <v>172</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11204,10 +11068,10 @@
         <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -11222,7 +11086,7 @@
         <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>536</v>
+        <v>174</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>80</v>
@@ -11230,14 +11094,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11256,15 +11120,17 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>538</v>
+        <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>539</v>
+        <v>176</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11313,7 +11179,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>537</v>
+        <v>179</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11325,13 +11191,13 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -11340,7 +11206,7 @@
         <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>542</v>
+        <v>174</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>80</v>
@@ -11348,42 +11214,46 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I75" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>544</v>
+        <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11431,7 +11301,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11443,22 +11313,22 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>550</v>
+        <v>136</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>80</v>
@@ -11466,10 +11336,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11492,18 +11362,18 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11551,7 +11421,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11578,7 +11448,7 @@
         <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>80</v>
@@ -11586,10 +11456,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11612,13 +11482,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>558</v>
+        <v>170</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>559</v>
+        <v>171</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11669,7 +11539,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>557</v>
+        <v>172</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11678,10 +11548,10 @@
         <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11696,7 +11566,7 @@
         <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>560</v>
+        <v>174</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>80</v>
@@ -11704,14 +11574,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11730,16 +11600,16 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>562</v>
+        <v>138</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>563</v>
+        <v>176</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>564</v>
+        <v>177</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>565</v>
+        <v>155</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11789,7 +11659,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>561</v>
+        <v>179</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11801,7 +11671,7 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11816,7 +11686,7 @@
         <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>566</v>
+        <v>174</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>80</v>
@@ -11824,42 +11694,46 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>568</v>
+        <v>138</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11907,19 +11781,19 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11928,13 +11802,13 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>572</v>
+        <v>136</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>80</v>
@@ -11942,10 +11816,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11968,13 +11842,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>210</v>
+        <v>548</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>170</v>
+        <v>549</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>171</v>
+        <v>550</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -12025,7 +11899,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>172</v>
+        <v>547</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12034,10 +11908,10 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
@@ -12052,7 +11926,7 @@
         <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>174</v>
+        <v>551</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>80</v>
@@ -12060,21 +11934,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -12086,17 +11960,15 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>138</v>
+        <v>553</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>176</v>
+        <v>554</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12145,19 +12017,19 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>179</v>
+        <v>552</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
@@ -12172,7 +12044,7 @@
         <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>174</v>
+        <v>556</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>80</v>
@@ -12180,46 +12052,42 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>138</v>
+        <v>553</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -12267,19 +12135,19 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
@@ -12294,7 +12162,7 @@
         <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>136</v>
+        <v>556</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>80</v>
@@ -12302,10 +12170,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12328,18 +12196,20 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>568</v>
+        <v>220</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12387,7 +12257,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12408,13 +12278,13 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>80</v>
+        <v>565</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12422,10 +12292,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12448,15 +12318,17 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>210</v>
+        <v>568</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>170</v>
+        <v>569</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12505,7 +12377,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>172</v>
+        <v>567</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12514,10 +12386,10 @@
         <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -12526,35 +12398,35 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>174</v>
+        <v>573</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12566,17 +12438,15 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>138</v>
+        <v>548</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>176</v>
+        <v>576</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12625,19 +12495,19 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>179</v>
+        <v>575</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12646,60 +12516,58 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>174</v>
+        <v>579</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>138</v>
+        <v>553</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12747,19 +12615,19 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12768,13 +12636,13 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>136</v>
+        <v>586</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>80</v>
@@ -12782,10 +12650,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12808,13 +12676,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12865,7 +12733,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12889,10 +12757,10 @@
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>80</v>
@@ -12900,10 +12768,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12914,7 +12782,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12926,13 +12794,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>594</v>
+        <v>503</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12983,13 +12851,13 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
@@ -13010,7 +12878,7 @@
         <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>80</v>
@@ -13018,10 +12886,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13044,13 +12912,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>594</v>
+        <v>190</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13077,13 +12945,11 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13101,7 +12967,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13128,7 +12994,7 @@
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>80</v>
@@ -13136,10 +13002,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13162,20 +13028,16 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>220</v>
+        <v>527</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>605</v>
-      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -13223,7 +13085,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13244,13 +13106,13 @@
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>80</v>
@@ -13258,10 +13120,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13284,17 +13146,15 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>609</v>
+        <v>210</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>610</v>
+        <v>170</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13343,7 +13203,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>608</v>
+        <v>172</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13352,10 +13212,10 @@
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
@@ -13364,35 +13224,35 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>614</v>
+        <v>174</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>615</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13404,15 +13264,17 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>589</v>
+        <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>617</v>
+        <v>176</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13461,19 +13323,19 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>616</v>
+        <v>179</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13482,58 +13344,60 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>619</v>
+        <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>620</v>
+        <v>174</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>621</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>594</v>
+        <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>623</v>
+        <v>536</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>624</v>
+        <v>537</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13581,19 +13445,19 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>622</v>
+        <v>538</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
@@ -13602,13 +13466,13 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>626</v>
+        <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>627</v>
+        <v>136</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>80</v>
@@ -13616,10 +13480,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13627,7 +13491,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>91</v>
@@ -13642,15 +13506,17 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>227</v>
+        <v>609</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13675,13 +13541,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>613</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>614</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13699,10 +13565,10 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>91</v>
@@ -13720,24 +13586,24 @@
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>80</v>
+        <v>603</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>80</v>
+        <v>617</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13748,7 +13614,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13760,13 +13626,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>544</v>
+        <v>190</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13793,13 +13659,13 @@
         <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>80</v>
+        <v>621</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>80</v>
+        <v>622</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
@@ -13817,13 +13683,13 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
@@ -13838,24 +13704,24 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>80</v>
+        <v>624</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13866,7 +13732,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13878,15 +13744,17 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>190</v>
+        <v>626</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13911,11 +13779,13 @@
         <v>80</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Y96" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z96" t="s" s="2">
-        <v>639</v>
+        <v>80</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>80</v>
@@ -13933,13 +13803,13 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
@@ -13951,7 +13821,7 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>80</v>
+        <v>630</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13960,850 +13830,14 @@
         <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AP103" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP103">
+  <autoFilter ref="A1:AP96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14813,7 +13847,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1041,70 +1041,14 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="prescription"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>CodeableReference.concept</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="prescription"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationRequest.medication.reference</t>
@@ -2314,7 +2258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP96"/>
+  <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6364,7 +6308,7 @@
         <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>80</v>
@@ -6403,7 +6347,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6438,10 +6382,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6461,16 +6405,16 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>170</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>171</v>
+        <v>330</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6521,7 +6465,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6530,10 +6474,10 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6548,7 +6492,7 @@
         <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6556,21 +6500,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6579,19 +6523,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>138</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>155</v>
+        <v>336</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6629,57 +6573,57 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>179</v>
+        <v>332</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6699,23 +6643,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6724,7 +6664,7 @@
         <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>80</v>
@@ -6763,7 +6703,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6790,18 +6730,18 @@
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>337</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6809,35 +6749,33 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6885,7 +6823,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6900,30 +6838,30 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6934,27 +6872,29 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6991,25 +6931,23 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -7021,16 +6959,16 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>136</v>
+        <v>364</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -7038,18 +6976,20 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>91</v>
@@ -7061,19 +7001,19 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7123,13 +7063,13 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -7138,30 +7078,30 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>357</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7169,10 +7109,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7184,13 +7124,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>170</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
+        <v>171</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7202,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -7241,19 +7181,19 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>172</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7268,7 +7208,7 @@
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>365</v>
+        <v>174</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -7276,24 +7216,24 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
@@ -7302,16 +7242,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>367</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>368</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>369</v>
+        <v>177</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7349,57 +7289,57 @@
         <v>80</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>366</v>
+        <v>179</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>374</v>
+        <v>174</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7410,28 +7350,28 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K43" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7469,26 +7409,28 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
@@ -7497,16 +7439,16 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>383</v>
+        <v>136</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7514,14 +7456,12 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7539,19 +7479,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7577,13 +7517,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7601,13 +7541,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7616,19 +7556,19 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>383</v>
+        <v>136</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7647,7 +7587,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>91</v>
@@ -7659,18 +7599,20 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7680,7 +7622,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7719,7 +7661,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7728,10 +7670,10 @@
         <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>173</v>
+        <v>395</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7746,7 +7688,7 @@
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>174</v>
+        <v>396</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7754,21 +7696,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7777,19 +7719,19 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>176</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>177</v>
+        <v>400</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>155</v>
+        <v>401</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7827,31 +7769,31 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>179</v>
+        <v>402</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7866,7 +7808,7 @@
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7874,12 +7816,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7897,19 +7841,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>397</v>
+        <v>361</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7959,34 +7903,34 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>136</v>
+        <v>364</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -7994,10 +7938,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8005,7 +7949,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>91</v>
@@ -8017,20 +7961,18 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>170</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8040,7 +7982,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -8055,13 +7997,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -8079,7 +8021,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>407</v>
+        <v>172</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8088,10 +8030,10 @@
         <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -8106,7 +8048,7 @@
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8117,18 +8059,18 @@
         <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -8137,19 +8079,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>176</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>177</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
+        <v>155</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8187,31 +8129,31 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>413</v>
+        <v>179</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8226,7 +8168,7 @@
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>415</v>
+        <v>174</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8234,10 +8176,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8263,13 +8205,13 @@
         <v>210</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8319,7 +8261,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8328,7 +8270,7 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
@@ -8354,14 +8296,12 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8379,19 +8319,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8417,13 +8357,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8441,13 +8381,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -8456,19 +8396,19 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>383</v>
+        <v>136</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8476,7 +8416,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>390</v>
@@ -8487,7 +8427,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>91</v>
@@ -8499,18 +8439,20 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>170</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8520,7 +8462,7 @@
         <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>80</v>
@@ -8559,7 +8501,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>172</v>
+        <v>394</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8568,10 +8510,10 @@
         <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>173</v>
+        <v>395</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8586,7 +8528,7 @@
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>174</v>
+        <v>396</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8594,21 +8536,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8617,19 +8559,19 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>176</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>177</v>
+        <v>400</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>155</v>
+        <v>401</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8667,31 +8609,31 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>179</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8706,7 +8648,7 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8714,10 +8656,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8740,17 +8682,15 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8799,7 +8739,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8808,7 +8748,7 @@
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>103</v>
@@ -8817,27 +8757,27 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>136</v>
+        <v>419</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8860,17 +8800,15 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8895,13 +8833,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8919,7 +8857,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8937,16 +8875,16 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8954,10 +8892,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8980,16 +8918,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9039,7 +8977,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9048,7 +8986,7 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
@@ -9066,7 +9004,7 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9074,10 +9012,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9100,16 +9038,16 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9135,13 +9073,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -9159,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9168,7 +9106,7 @@
         <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -9177,7 +9115,7 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -9186,7 +9124,7 @@
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>136</v>
+        <v>439</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9194,10 +9132,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9208,7 +9146,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9217,16 +9155,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>274</v>
+        <v>441</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9277,13 +9215,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -9295,27 +9233,27 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9326,7 +9264,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9335,16 +9273,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9395,13 +9333,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -9413,16 +9351,16 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9430,10 +9368,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9453,20 +9391,18 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>304</v>
+        <v>452</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9515,7 +9451,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9539,10 +9475,10 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9550,10 +9486,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9564,28 +9500,28 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>190</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9611,13 +9547,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9635,13 +9571,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9650,30 +9586,30 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9684,7 +9620,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9696,15 +9632,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9729,13 +9667,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9753,13 +9691,13 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
@@ -9771,16 +9709,16 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9788,10 +9726,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9814,13 +9752,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9871,7 +9809,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9889,7 +9827,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9898,7 +9836,7 @@
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9906,10 +9844,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9923,7 +9861,7 @@
         <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -9932,13 +9870,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9989,13 +9927,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -10004,19 +9942,19 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -10024,10 +9962,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10038,10 +9976,10 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -10050,18 +9988,18 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10085,13 +10023,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -10109,13 +10047,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -10124,30 +10062,30 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10170,17 +10108,15 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10205,13 +10141,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10229,7 +10165,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10256,7 +10192,7 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -10264,10 +10200,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10290,15 +10226,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10347,7 +10285,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10365,7 +10303,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10374,7 +10312,7 @@
         <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10382,10 +10320,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10399,7 +10337,7 @@
         <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -10408,13 +10346,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10465,13 +10403,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -10480,19 +10418,19 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>506</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10500,10 +10438,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10526,18 +10464,16 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>511</v>
+        <v>210</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>512</v>
+        <v>170</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>513</v>
+        <v>171</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>514</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10585,7 +10521,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>510</v>
+        <v>172</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10594,10 +10530,10 @@
         <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10612,7 +10548,7 @@
         <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>515</v>
+        <v>174</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10620,21 +10556,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10646,15 +10582,17 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>517</v>
+        <v>176</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10703,19 +10641,19 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>516</v>
+        <v>179</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10730,7 +10668,7 @@
         <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>519</v>
+        <v>174</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>80</v>
@@ -10738,14 +10676,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10758,24 +10696,26 @@
         <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>521</v>
+        <v>138</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10823,7 +10763,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10835,7 +10775,7 @@
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10850,7 +10790,7 @@
         <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>525</v>
+        <v>136</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>80</v>
@@ -10858,10 +10798,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10884,15 +10824,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10941,7 +10883,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10962,13 +10904,13 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>80</v>
@@ -10976,10 +10918,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11094,10 +11036,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11214,14 +11156,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11243,10 +11185,10 @@
         <v>138</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>155</v>
@@ -11301,7 +11243,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11336,10 +11278,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11362,17 +11304,15 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11421,7 +11361,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11448,7 +11388,7 @@
         <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>80</v>
@@ -11456,10 +11396,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11482,13 +11422,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>210</v>
+        <v>534</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>170</v>
+        <v>535</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>171</v>
+        <v>536</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11539,7 +11479,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>172</v>
+        <v>533</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11548,10 +11488,10 @@
         <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11566,7 +11506,7 @@
         <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>174</v>
+        <v>537</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>80</v>
@@ -11574,21 +11514,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11600,17 +11540,15 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>138</v>
+        <v>534</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>176</v>
+        <v>539</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11659,19 +11597,19 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>179</v>
+        <v>538</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11686,7 +11624,7 @@
         <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>174</v>
+        <v>537</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>80</v>
@@ -11694,45 +11632,45 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>155</v>
+        <v>544</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>156</v>
+        <v>545</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11781,19 +11719,19 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11802,13 +11740,13 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>136</v>
+        <v>547</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>80</v>
@@ -11816,10 +11754,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11842,15 +11780,17 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11899,7 +11839,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11920,24 +11860,24 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>80</v>
+        <v>553</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11960,13 +11900,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12017,7 +11957,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12038,24 +11978,24 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12078,15 +12018,17 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12135,7 +12077,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12156,13 +12098,13 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>80</v>
@@ -12170,10 +12112,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12196,20 +12138,16 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12257,7 +12195,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12278,13 +12216,13 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12292,10 +12230,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12306,7 +12244,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -12318,17 +12256,15 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>568</v>
+        <v>484</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12377,13 +12313,13 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
@@ -12398,24 +12334,24 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>572</v>
+        <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>574</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12438,13 +12374,13 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>548</v>
+        <v>190</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12471,13 +12407,11 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12495,7 +12429,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12516,16 +12450,16 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" hidden="true">
@@ -12556,7 +12490,7 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>582</v>
@@ -12564,9 +12498,7 @@
       <c r="M86" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="N86" t="s" s="2">
-        <v>584</v>
-      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12636,13 +12568,13 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>80</v>
@@ -12650,10 +12582,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12676,13 +12608,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>588</v>
+        <v>170</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>589</v>
+        <v>171</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12733,7 +12665,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>587</v>
+        <v>172</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12742,10 +12674,10 @@
         <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12757,10 +12689,10 @@
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>590</v>
+        <v>174</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>80</v>
@@ -12768,14 +12700,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12794,15 +12726,17 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>503</v>
+        <v>138</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>592</v>
+        <v>176</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12851,7 +12785,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>591</v>
+        <v>179</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12863,7 +12797,7 @@
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -12878,7 +12812,7 @@
         <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>594</v>
+        <v>174</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>80</v>
@@ -12886,42 +12820,46 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>596</v>
+        <v>517</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>518</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12945,11 +12883,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Y89" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z89" t="s" s="2">
-        <v>598</v>
+        <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -12967,19 +12907,19 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>595</v>
+        <v>519</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
@@ -12994,7 +12934,7 @@
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>599</v>
+        <v>136</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>80</v>
@@ -13002,10 +12942,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13013,7 +12953,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>91</v>
@@ -13028,15 +12968,17 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13061,13 +13003,13 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -13085,10 +13027,10 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>91</v>
@@ -13106,24 +13048,24 @@
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13146,13 +13088,13 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>171</v>
+        <v>601</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13179,13 +13121,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>80</v>
+        <v>602</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>80</v>
+        <v>603</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13203,7 +13145,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>172</v>
+        <v>599</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13212,10 +13154,10 @@
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
@@ -13224,16 +13166,16 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>174</v>
+        <v>604</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>80</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" hidden="true">
@@ -13245,7 +13187,7 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13264,16 +13206,16 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>138</v>
+        <v>607</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>176</v>
+        <v>608</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>177</v>
+        <v>609</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>155</v>
+        <v>610</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13323,7 +13265,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>179</v>
+        <v>606</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13335,13 +13277,13 @@
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -13350,494 +13292,14 @@
         <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AP96" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP96">
+  <autoFilter ref="A1:AP92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13847,7 +13309,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-prescription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
